--- a/Books-PDF/Training/Yusupov/Yusupov_Training.xlsx
+++ b/Books-PDF/Training/Yusupov/Yusupov_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\GitHubBack\ChessDoc\Books-PDF\Training\Yusupov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33904911-CE90-427C-8B60-39CBE002CC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1433039-1581-49B1-ABBF-38960BFC6BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07EC624E-E184-4433-8F71-38FC589D339E}"/>
   </bookViews>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,9 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECAEC33-F2A0-4104-B01A-0A3FEA4CF683}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Books-PDF/Training/Yusupov/Yusupov_Training.xlsx
+++ b/Books-PDF/Training/Yusupov/Yusupov_Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\GitHubBack\ChessDoc\Books-PDF\Training\Yusupov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1433039-1581-49B1-ABBF-38960BFC6BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B3B8E-FEFA-491E-94D1-4226742A531A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07EC624E-E184-4433-8F71-38FC589D339E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{07EC624E-E184-4433-8F71-38FC589D339E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buildup-1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Boostup-3" sheetId="9" r:id="rId8"/>
     <sheet name="Evolution-3" sheetId="3" r:id="rId9"/>
     <sheet name="Index" sheetId="28" r:id="rId10"/>
+    <sheet name="Classification" sheetId="29" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="328">
   <si>
     <t>Mating motifs</t>
   </si>
@@ -1005,13 +1006,34 @@
   </si>
   <si>
     <t>Repeat</t>
+  </si>
+  <si>
+    <t>Opening</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Tatice</t>
+  </si>
+  <si>
+    <t>Pawn-Structure</t>
+  </si>
+  <si>
+    <t>File-diagonal</t>
+  </si>
+  <si>
+    <t>B V N</t>
+  </si>
+  <si>
+    <t>Center and Space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,13 +1041,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1040,10 +1104,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2E7231-5B4B-4E02-8445-0085DF109618}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,46 +1442,46 @@
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1422,11 +1493,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1438,30 +1509,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C8" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1473,49 +1544,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="C14" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1527,11 +1598,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1546,33 +1617,33 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="C20" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1584,11 +1655,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1605,6 +1676,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1612,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECAEC33-F2A0-4104-B01A-0A3FEA4CF683}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2375,12 +2447,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA170D7-B793-44C5-B5BD-17F33D5E084C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD58FD0-F1F9-46DD-8685-E49B9F22E3E2}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,41 +2517,41 @@
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2457,41 +2585,41 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C9" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2503,36 +2631,36 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="C14" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2544,14 +2672,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2566,30 +2694,30 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2604,25 +2732,25 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="C23" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2636,7 +2764,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2644,11 +2772,11 @@
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2660,11 +2788,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2690,43 +2818,43 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2749,11 +2877,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2765,11 +2893,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2781,19 +2909,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2805,11 +2933,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2821,22 +2949,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="C22" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2858,7 +2986,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2866,11 +2994,11 @@
     <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2885,22 +3013,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2934,49 +3062,49 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C8" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C10" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3002,27 +3130,27 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3053,11 +3181,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3101,7 +3229,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3109,11 +3237,11 @@
     <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3128,19 +3256,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3163,11 +3291,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3193,19 +3321,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3217,11 +3345,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3274,11 +3402,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3304,22 +3432,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="D22" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3344,7 +3472,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3352,14 +3480,14 @@
     <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3385,11 +3513,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3404,14 +3532,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3437,14 +3565,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3456,19 +3584,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3480,22 +3608,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3529,11 +3657,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3556,14 +3684,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3575,14 +3703,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3596,7 +3724,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3604,11 +3732,11 @@
     <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3639,52 +3767,52 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C6" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C7" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3699,11 +3827,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3742,11 +3870,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3761,52 +3889,52 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C18" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="C19" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="C21" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3836,7 +3964,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3882,22 +4010,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3928,22 +4056,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3999,44 +4127,44 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C18" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="C19" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4051,11 +4179,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4087,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF2B76A-4648-4C58-84CB-7CA7C8A07871}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,11 +4259,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4150,19 +4278,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4239,14 +4367,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4291,11 +4419,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4321,6 +4449,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFD037E0F555104F902E5D16CA0A3EF6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="896720a97cd23a348bf76a14e297ace6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b562bb5c-2bcc-446d-a6ab-2c032ef64b30" xmlns:ns4="79484fb9-75e5-47bb-af24-98016862dfff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e666244cee1be934a5a7e4041f23020" ns3:_="" ns4:_="">
     <xsd:import namespace="b562bb5c-2bcc-446d-a6ab-2c032ef64b30"/>
@@ -4543,7 +4677,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4552,13 +4686,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE3D2AD5-3913-4B35-8B49-141FC92F9EC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D094ED1-E13C-4442-AA7C-530525E3E9CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4577,19 +4714,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF93BA4-394D-4F43-B88E-30EEC94BABAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE3D2AD5-3913-4B35-8B49-141FC92F9EC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>